--- a/data/trans_orig/P1002-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F475F1A7-2D84-41B3-A0D5-D6FB5B243586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E42B901-A5F1-40AF-A233-D8C602D17B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E39BD573-38E3-4677-85BB-6CED631E77AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{651D7756-1E6B-43DB-A17C-D6BDF088CCBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1765 +77,1759 @@
     <t>7,3%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
     <t>4,7%</t>
   </si>
   <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A55750D-9FAA-4217-BFFB-5BEB0A11AA3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C981196-5FE0-4C51-9E79-E42AC4147F3E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2991,10 +2985,10 @@
         <v>12569</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>90</v>
@@ -3042,13 +3036,13 @@
         <v>190739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3152,7 +3146,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3200,7 +3194,7 @@
         <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>115</v>
@@ -3489,10 +3483,10 @@
         <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,10 +3534,10 @@
         <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3683,7 @@
         <v>6066</v>
       </c>
       <c r="N29" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>173</v>
@@ -3740,7 +3734,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76F97DF-D52D-43C0-8A9C-06EC43100D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F165845-6A05-4ABE-B7EA-5F65B4AADC96}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4072,10 +4066,10 @@
         <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4084,13 @@
         <v>465955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -4105,13 +4099,13 @@
         <v>445488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4120,13 +4114,13 @@
         <v>911444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4188,13 @@
         <v>17727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4209,13 +4203,13 @@
         <v>37911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4224,13 +4218,13 @@
         <v>55638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4239,13 @@
         <v>306319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4260,13 +4254,13 @@
         <v>303109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -4275,13 +4269,13 @@
         <v>609428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4343,13 @@
         <v>49766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4364,13 +4358,13 @@
         <v>136853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -4379,13 +4373,13 @@
         <v>186619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,13 +4394,13 @@
         <v>618954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4504,13 +4498,13 @@
         <v>9241</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4519,13 +4513,13 @@
         <v>37690</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4534,13 +4528,13 @@
         <v>46931</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4549,13 @@
         <v>203377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4570,13 +4564,13 @@
         <v>181901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -4585,13 +4579,13 @@
         <v>385278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4653,13 @@
         <v>19514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4674,13 +4668,13 @@
         <v>29579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4689,13 +4683,13 @@
         <v>49093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4704,13 @@
         <v>253413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4725,13 +4719,13 @@
         <v>250452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4740,13 +4734,13 @@
         <v>503865</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4808,13 @@
         <v>27908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4865,13 +4859,13 @@
         <v>634880</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -4880,13 +4874,13 @@
         <v>640895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -4895,13 +4889,13 @@
         <v>1275775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4963,13 @@
         <v>66859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>13</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -4984,13 +4978,13 @@
         <v>124942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4999,13 +4993,13 @@
         <v>191801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,10 +5014,10 @@
         <v>711302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>290</v>
@@ -5291,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902C37CE-C1DF-429F-8E3D-26C590D663F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5775C4B-F663-456D-A921-56E8974E7095}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5421,7 +5415,7 @@
         <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5430,13 +5424,13 @@
         <v>56515</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5445,13 +5439,13 @@
         <v>83915</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5460,13 @@
         <v>266362</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -5481,13 +5475,13 @@
         <v>232188</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>465</v>
@@ -5496,13 +5490,13 @@
         <v>498549</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5564,13 @@
         <v>13486</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5585,13 +5579,13 @@
         <v>42155</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5600,13 +5594,13 @@
         <v>55641</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5615,13 @@
         <v>489089</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5636,13 +5630,13 @@
         <v>480929</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>908</v>
@@ -5651,13 +5645,13 @@
         <v>970018</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5719,13 @@
         <v>6715</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5740,13 +5734,13 @@
         <v>16514</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5755,13 +5749,13 @@
         <v>23229</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5770,13 @@
         <v>311850</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5791,13 +5785,13 @@
         <v>319795</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>645</v>
@@ -5806,13 +5800,13 @@
         <v>631645</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5874,13 @@
         <v>32335</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5895,13 +5889,13 @@
         <v>72339</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5910,13 +5904,13 @@
         <v>104674</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5925,13 @@
         <v>337629</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -6041,7 +6035,7 @@
         <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6089,7 +6083,7 @@
         <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>395</v>
@@ -6190,13 +6184,13 @@
         <v>21073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6205,13 +6199,13 @@
         <v>34110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -6220,13 +6214,13 @@
         <v>55183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>242050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -6256,13 +6250,13 @@
         <v>239005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6271,13 +6265,13 @@
         <v>481055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6339,13 @@
         <v>39201</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6396,13 +6390,13 @@
         <v>617357</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -6411,13 +6405,13 @@
         <v>609096</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -6426,13 +6420,13 @@
         <v>1226453</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6494,13 @@
         <v>32367</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6518,10 +6512,10 @@
         <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -6530,13 +6524,13 @@
         <v>89118</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6545,13 @@
         <v>746216</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -6569,10 +6563,10 @@
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -6581,13 +6575,13 @@
         <v>1515632</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6649,13 @@
         <v>181408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>89</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6670,13 +6664,13 @@
         <v>378113</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -6685,13 +6679,13 @@
         <v>559521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6700,13 @@
         <v>3212942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6721,13 +6715,13 @@
         <v>3166429</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>6057</v>
@@ -6736,13 +6730,13 @@
         <v>6379371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B88B66-37C3-4654-9F2B-71DA8561AA02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F474C-69FF-4AFC-ABCA-B8F8E72FD5B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +6940,13 @@
         <v>5425</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6961,13 +6955,13 @@
         <v>8129</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -6976,13 +6970,13 @@
         <v>13554</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,10 +6991,10 @@
         <v>254873</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>472</v>
@@ -7134,10 +7128,10 @@
         <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7146,13 @@
         <v>481862</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
@@ -7167,13 +7161,13 @@
         <v>493117</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -7182,13 +7176,13 @@
         <v>974980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7256,13 +7250,13 @@
         <v>18354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -7271,13 +7265,13 @@
         <v>24376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7286,13 +7280,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7301,13 @@
         <v>303886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
@@ -7322,13 +7316,13 @@
         <v>348291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -7337,13 +7331,13 @@
         <v>652178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7405,13 @@
         <v>19141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -7426,13 +7420,13 @@
         <v>46596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -7441,13 +7435,13 @@
         <v>65737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7456,13 @@
         <v>301812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>519</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -7477,13 +7471,13 @@
         <v>381960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -7492,13 +7486,13 @@
         <v>683773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7560,13 @@
         <v>6155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -7581,13 +7575,13 @@
         <v>20576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7596,13 +7590,13 @@
         <v>26731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7611,13 @@
         <v>190593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7632,13 +7626,13 @@
         <v>210654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M17" s="7">
         <v>713</v>
@@ -7647,13 +7641,13 @@
         <v>401246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7715,13 @@
         <v>14927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>543</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>544</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7736,13 +7730,13 @@
         <v>19632</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -7751,13 +7745,13 @@
         <v>34559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7766,13 @@
         <v>262296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -7802,7 +7796,7 @@
         <v>518286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>557</v>
@@ -7876,13 +7870,13 @@
         <v>51349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>165</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -7891,13 +7885,13 @@
         <v>94263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>559</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -7906,13 +7900,13 @@
         <v>145612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7921,13 @@
         <v>576405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>567</v>
+        <v>244</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>568</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>569</v>
+        <v>175</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7942,13 +7936,13 @@
         <v>709940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>564</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>1379</v>
@@ -7957,13 +7951,13 @@
         <v>1286345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8025,13 @@
         <v>46555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -8046,13 +8040,13 @@
         <v>135795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -8061,13 +8055,13 @@
         <v>182349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8076,13 @@
         <v>812873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>882</v>
@@ -8097,13 +8091,13 @@
         <v>732639</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="M26" s="7">
         <v>1591</v>
@@ -8112,13 +8106,13 @@
         <v>1545513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8180,13 @@
         <v>199340</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>606</v>
@@ -8201,13 +8195,13 @@
         <v>410097</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>587</v>
       </c>
       <c r="M28" s="7">
         <v>822</v>
@@ -8219,10 +8213,10 @@
         <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8231,13 @@
         <v>3184602</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>592</v>
       </c>
       <c r="H29" s="7">
         <v>4754</v>
@@ -8252,13 +8246,13 @@
         <v>3395864</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M29" s="7">
         <v>7912</v>
@@ -8270,10 +8264,10 @@
         <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1002-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E42B901-A5F1-40AF-A233-D8C602D17B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26EEA16-2533-4E9D-AB89-EC919B2AE832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{651D7756-1E6B-43DB-A17C-D6BDF088CCBA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2517557F-1FF3-45BC-B4DA-B0E2687902D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,1747 +77,1747 @@
     <t>7,3%</t>
   </si>
   <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>89,22%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
   </si>
   <si>
     <t>88,15%</t>
@@ -2241,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C981196-5FE0-4C51-9E79-E42AC4147F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B337BF4-5E74-4405-896F-A1F348E0246B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2988,10 +2988,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3000,13 +3000,13 @@
         <v>12205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3015,13 +3015,13 @@
         <v>24774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3036,13 @@
         <v>190739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3051,13 +3051,13 @@
         <v>195463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3066,13 +3066,13 @@
         <v>386202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3128,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3140,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3155,13 +3155,13 @@
         <v>10549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3170,13 +3170,13 @@
         <v>14166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3191,13 @@
         <v>267194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3206,13 +3206,13 @@
         <v>267595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3221,13 +3221,13 @@
         <v>534789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3295,13 @@
         <v>31587</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3310,13 +3310,13 @@
         <v>60090</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -3325,13 +3325,13 @@
         <v>91677</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>583440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -3361,13 +3361,13 @@
         <v>578129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1128</v>
@@ -3376,13 +3376,13 @@
         <v>1161569</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3438,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3450,13 @@
         <v>57118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -3465,13 +3465,13 @@
         <v>72410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -3480,13 +3480,13 @@
         <v>129528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3501,13 @@
         <v>686677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -3516,13 +3516,13 @@
         <v>711101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1357</v>
@@ -3531,13 +3531,13 @@
         <v>1397778</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3605,13 @@
         <v>170534</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -3620,13 +3620,13 @@
         <v>286810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>445</v>
@@ -3635,13 +3635,13 @@
         <v>457343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,16 +3653,16 @@
         <v>3046</v>
       </c>
       <c r="D29" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>3020</v>
@@ -3671,13 +3671,13 @@
         <v>3092388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>6066</v>
@@ -3686,13 +3686,13 @@
         <v>6198398</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F165845-6A05-4ABE-B7EA-5F65B4AADC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A208BD1-9BAC-43A4-9B8D-19AD9764B872}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3789,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,39 +3894,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,39 +3939,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3984,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4033,13 @@
         <v>39572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -4048,13 +4048,13 @@
         <v>77222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4063,13 +4063,13 @@
         <v>116793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4084,13 @@
         <v>465955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -4099,13 +4099,13 @@
         <v>445488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4114,13 +4114,13 @@
         <v>911444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4188,13 @@
         <v>17727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4203,13 +4203,13 @@
         <v>37911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4218,13 +4218,13 @@
         <v>55638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4239,13 @@
         <v>306319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4254,13 +4254,13 @@
         <v>303109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -4269,13 +4269,13 @@
         <v>609428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4343,13 @@
         <v>49766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4358,13 +4358,13 @@
         <v>136853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -4373,13 +4373,13 @@
         <v>186619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4394,13 @@
         <v>618954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4409,13 +4409,13 @@
         <v>539343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1075</v>
@@ -4424,13 +4424,13 @@
         <v>1158297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4498,13 @@
         <v>9241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4513,13 +4513,13 @@
         <v>37690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4528,13 +4528,13 @@
         <v>46931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4549,13 @@
         <v>203377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4564,13 +4564,13 @@
         <v>181901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -4579,13 +4579,13 @@
         <v>385278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4641,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4653,13 @@
         <v>19514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4668,13 +4668,13 @@
         <v>29579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4683,13 +4683,13 @@
         <v>49093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4704,13 @@
         <v>253413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4719,13 +4719,13 @@
         <v>250452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4734,13 +4734,13 @@
         <v>503865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4796,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4808,13 @@
         <v>27908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4823,13 +4823,13 @@
         <v>52013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -4838,13 +4838,13 @@
         <v>79921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4859,13 @@
         <v>634880</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -4874,13 +4874,13 @@
         <v>640895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -4889,13 +4889,13 @@
         <v>1275775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4951,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4963,13 +4963,13 @@
         <v>66859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -4978,13 +4978,13 @@
         <v>124942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4993,13 +4993,13 @@
         <v>191801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5014,13 @@
         <v>711302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -5029,13 +5029,13 @@
         <v>698911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1302</v>
@@ -5044,13 +5044,13 @@
         <v>1410213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5118,13 @@
         <v>230586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -5133,13 +5133,13 @@
         <v>496210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -5148,13 +5148,13 @@
         <v>726796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5169,13 @@
         <v>3194202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>2834</v>
@@ -5184,13 +5184,13 @@
         <v>3060099</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5832</v>
@@ -5199,13 +5199,13 @@
         <v>6254301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5775C4B-F663-456D-A921-56E8974E7095}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF46C01-D85E-4BEA-A317-5DAC3DBBDC41}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5409,13 @@
         <v>27399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5424,13 +5424,13 @@
         <v>56515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5439,13 +5439,13 @@
         <v>83915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5460,13 @@
         <v>266362</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -5475,13 +5475,13 @@
         <v>232188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>465</v>
@@ -5490,13 +5490,13 @@
         <v>498549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5564,13 @@
         <v>13486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5579,13 +5579,13 @@
         <v>42155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5594,13 +5594,13 @@
         <v>55641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5615,13 @@
         <v>489089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5630,13 +5630,13 @@
         <v>480929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>908</v>
@@ -5645,13 +5645,13 @@
         <v>970018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5719,13 @@
         <v>6715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5734,13 +5734,13 @@
         <v>16514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5749,13 +5749,13 @@
         <v>23229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5770,13 @@
         <v>311850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5785,13 +5785,13 @@
         <v>319795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>645</v>
@@ -5800,13 +5800,13 @@
         <v>631645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5874,13 @@
         <v>32335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5889,13 +5889,13 @@
         <v>72339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5904,13 +5904,13 @@
         <v>104674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5925,13 @@
         <v>337629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -5940,13 +5940,13 @@
         <v>314944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -5955,13 +5955,13 @@
         <v>652573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6029,13 @@
         <v>8832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6044,13 +6044,13 @@
         <v>17531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6059,13 +6059,13 @@
         <v>26363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6080,13 @@
         <v>202389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6095,13 +6095,13 @@
         <v>201056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6110,13 +6110,13 @@
         <v>403445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6172,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6184,13 +6184,13 @@
         <v>21073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6199,13 +6199,13 @@
         <v>34110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -6214,13 +6214,13 @@
         <v>55183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6235,13 @@
         <v>242050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -6250,13 +6250,13 @@
         <v>239005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6265,13 +6265,13 @@
         <v>481055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6327,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6339,13 +6339,13 @@
         <v>39201</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6354,13 +6354,13 @@
         <v>82198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -6369,13 +6369,13 @@
         <v>121399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6390,13 @@
         <v>617357</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -6405,13 +6405,13 @@
         <v>609096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -6420,13 +6420,13 @@
         <v>1226453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6482,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6494,13 @@
         <v>32367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6509,13 +6509,13 @@
         <v>56751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -6524,13 +6524,13 @@
         <v>89118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6545,13 @@
         <v>746216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -6560,13 +6560,13 @@
         <v>769416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -6575,13 +6575,13 @@
         <v>1515632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6649,13 @@
         <v>181408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>321</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6664,13 +6664,13 @@
         <v>378113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -6679,13 +6679,13 @@
         <v>559521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6700,13 @@
         <v>3212942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6715,13 +6715,13 @@
         <v>3166429</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>6057</v>
@@ -6730,13 +6730,13 @@
         <v>6379371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6792,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{005F474C-69FF-4AFC-ABCA-B8F8E72FD5B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727CA88E-874B-4653-9F55-34FBBA87ECEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +6940,13 @@
         <v>5425</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6955,13 +6955,13 @@
         <v>8129</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -6970,13 +6970,13 @@
         <v>13554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6991,13 @@
         <v>254873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>521</v>
@@ -7006,13 +7006,13 @@
         <v>263274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -7021,13 +7021,13 @@
         <v>518146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7095,13 @@
         <v>37435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -7110,13 +7110,13 @@
         <v>60729</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -7125,10 +7125,10 @@
         <v>98164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>38</v>
@@ -7146,13 +7146,13 @@
         <v>481862</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
@@ -7161,13 +7161,13 @@
         <v>493117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -7176,13 +7176,13 @@
         <v>974980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7250,13 @@
         <v>18354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -7265,13 +7265,13 @@
         <v>24376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7280,13 +7280,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>498</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7301,13 @@
         <v>303886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>501</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
@@ -7316,13 +7316,13 @@
         <v>348291</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
@@ -7331,13 +7331,13 @@
         <v>652178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7405,13 @@
         <v>19141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -7420,13 +7420,13 @@
         <v>46596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -7435,13 +7435,13 @@
         <v>65737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>443</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7456,13 @@
         <v>301812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -7471,13 +7471,13 @@
         <v>381960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>521</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>524</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -7486,13 +7486,13 @@
         <v>683773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7560,13 @@
         <v>6155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -7575,13 +7575,13 @@
         <v>20576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7590,13 +7590,13 @@
         <v>26731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7611,13 @@
         <v>190593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7626,13 +7626,13 @@
         <v>210654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>713</v>
@@ -7641,7 +7641,7 @@
         <v>401246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>541</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7745,7 +7745,7 @@
         <v>34559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>374</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>549</v>
@@ -7796,7 +7796,7 @@
         <v>518286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>557</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7870,10 +7870,10 @@
         <v>51349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>38</v>
@@ -7885,13 +7885,13 @@
         <v>94263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>559</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>561</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -7900,10 +7900,10 @@
         <v>145612</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>563</v>
@@ -7921,13 +7921,13 @@
         <v>576405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>564</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7936,13 +7936,13 @@
         <v>709940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>1379</v>
@@ -7951,13 +7951,13 @@
         <v>1286345</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,10 +8025,10 @@
         <v>46555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>569</v>
@@ -8076,13 +8076,13 @@
         <v>812873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>576</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>882</v>
@@ -8183,10 +8183,10 @@
         <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>606</v>
@@ -8195,7 +8195,7 @@
         <v>410097</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>586</v>
@@ -8210,7 +8210,7 @@
         <v>609436</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>588</v>
@@ -8237,7 +8237,7 @@
         <v>591</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>592</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>4754</v>
@@ -8246,7 +8246,7 @@
         <v>3395864</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>592</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>593</v>
@@ -8261,7 +8261,7 @@
         <v>6580466</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>595</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26EEA16-2533-4E9D-AB89-EC919B2AE832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90972FE-86BA-4F6F-BC65-310B14B30D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2517557F-1FF3-45BC-B4DA-B0E2687902D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD5308E0-E905-431F-82F1-607EF3893FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,1765 +71,1771 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B337BF4-5E74-4405-896F-A1F348E0246B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC27BC-687D-430B-B4F8-519349BB37BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,13 +2991,13 @@
         <v>12569</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3000,13 +3006,13 @@
         <v>12205</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3015,13 +3021,13 @@
         <v>24774</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3042,13 @@
         <v>190739</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3051,13 +3057,13 @@
         <v>195463</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -3066,13 +3072,13 @@
         <v>386202</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3134,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3146,13 @@
         <v>3617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3155,13 +3161,13 @@
         <v>10549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -3170,13 +3176,13 @@
         <v>14166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3197,13 @@
         <v>267194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -3206,13 +3212,13 @@
         <v>267595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3221,13 +3227,13 @@
         <v>534789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3301,13 @@
         <v>31587</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>60</v>
@@ -3310,13 +3316,13 @@
         <v>60090</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -3325,13 +3331,13 @@
         <v>91677</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3352,13 @@
         <v>583440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>561</v>
@@ -3361,13 +3367,13 @@
         <v>578129</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1128</v>
@@ -3376,13 +3382,13 @@
         <v>1161569</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3444,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3456,13 @@
         <v>57118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -3465,13 +3471,13 @@
         <v>72410</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -3480,13 +3486,13 @@
         <v>129528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3507,13 @@
         <v>686677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>678</v>
@@ -3516,13 +3522,13 @@
         <v>711101</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>1357</v>
@@ -3531,13 +3537,13 @@
         <v>1397778</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3611,13 @@
         <v>170534</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>277</v>
@@ -3620,13 +3626,13 @@
         <v>286810</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>445</v>
@@ -3635,13 +3641,13 @@
         <v>457343</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,16 +3659,16 @@
         <v>3046</v>
       </c>
       <c r="D29" s="7">
-        <v>3106009</v>
+        <v>3106010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3020</v>
@@ -3671,28 +3677,28 @@
         <v>3092388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6066</v>
       </c>
       <c r="N29" s="7">
-        <v>6198398</v>
+        <v>6198397</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3710,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3734,7 +3740,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A208BD1-9BAC-43A4-9B8D-19AD9764B872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F650259-EB6F-4AA7-9F83-1788AB6915E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,7 +3795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3894,39 +3900,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,39 +3945,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3990,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4039,13 @@
         <v>39572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -4048,13 +4054,13 @@
         <v>77222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4063,13 +4069,13 @@
         <v>116793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4090,13 @@
         <v>465955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -4099,13 +4105,13 @@
         <v>445488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4114,13 +4120,13 @@
         <v>911444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4194,13 @@
         <v>17727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4203,13 +4209,13 @@
         <v>37911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4218,13 +4224,13 @@
         <v>55638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4245,13 @@
         <v>306319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4254,13 +4260,13 @@
         <v>303109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -4269,13 +4275,13 @@
         <v>609428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4349,13 @@
         <v>49766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -4358,13 +4364,13 @@
         <v>136853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -4373,13 +4379,13 @@
         <v>186619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4400,13 @@
         <v>618954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>497</v>
@@ -4409,13 +4415,13 @@
         <v>539343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1075</v>
@@ -4424,13 +4430,13 @@
         <v>1158297</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4504,13 @@
         <v>9241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4513,13 +4519,13 @@
         <v>37690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4528,13 +4534,13 @@
         <v>46931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4555,13 @@
         <v>203377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4564,13 +4570,13 @@
         <v>181901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -4579,13 +4585,13 @@
         <v>385278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4647,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4659,13 @@
         <v>19514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4668,13 +4674,13 @@
         <v>29579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4683,13 +4689,13 @@
         <v>49093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4710,13 @@
         <v>253413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4719,13 +4725,13 @@
         <v>250452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>481</v>
@@ -4734,13 +4740,13 @@
         <v>503865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4802,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4814,13 @@
         <v>27908</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4823,13 +4829,13 @@
         <v>52013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -4838,13 +4844,13 @@
         <v>79921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4865,13 @@
         <v>634880</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -4874,13 +4880,13 @@
         <v>640895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -4889,13 +4895,13 @@
         <v>1275775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4957,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4963,13 +4969,13 @@
         <v>66859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -4978,13 +4984,13 @@
         <v>124942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4993,13 +4999,13 @@
         <v>191801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5020,13 @@
         <v>711302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -5029,13 +5035,13 @@
         <v>698911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1302</v>
@@ -5044,13 +5050,13 @@
         <v>1410213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5124,13 @@
         <v>230586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -5133,13 +5139,13 @@
         <v>496210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -5148,13 +5154,13 @@
         <v>726796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5175,13 @@
         <v>3194202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2834</v>
@@ -5184,13 +5190,13 @@
         <v>3060099</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5832</v>
@@ -5199,13 +5205,13 @@
         <v>6254301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5267,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF46C01-D85E-4BEA-A317-5DAC3DBBDC41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A9D9A4-487F-45F7-9E64-4DF3912AFD8C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5415,13 @@
         <v>27399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5424,13 +5430,13 @@
         <v>56515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5439,13 +5445,13 @@
         <v>83915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5466,13 @@
         <v>266362</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -5475,13 +5481,13 @@
         <v>232188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>465</v>
@@ -5490,13 +5496,13 @@
         <v>498549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5570,13 @@
         <v>13486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5579,13 +5585,13 @@
         <v>42155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5594,13 +5600,13 @@
         <v>55641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5621,13 @@
         <v>489089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5630,13 +5636,13 @@
         <v>480929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>908</v>
@@ -5645,13 +5651,13 @@
         <v>970018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5725,13 @@
         <v>6715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5734,13 +5740,13 @@
         <v>16514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5749,13 +5755,13 @@
         <v>23229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5776,13 @@
         <v>311850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5785,13 +5791,13 @@
         <v>319795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>645</v>
@@ -5800,13 +5806,13 @@
         <v>631645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5880,13 @@
         <v>32335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5889,13 +5895,13 @@
         <v>72339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5904,13 +5910,13 @@
         <v>104674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5931,13 @@
         <v>337629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>105</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>291</v>
@@ -5940,13 +5946,13 @@
         <v>314944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -5955,13 +5961,13 @@
         <v>652573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6035,13 @@
         <v>8832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6044,13 +6050,13 @@
         <v>17531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6059,13 +6065,13 @@
         <v>26363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6086,13 @@
         <v>202389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6095,13 +6101,13 @@
         <v>201056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6110,13 +6116,13 @@
         <v>403445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6178,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6184,13 +6190,13 @@
         <v>21073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6199,13 +6205,13 @@
         <v>34110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -6214,13 +6220,13 @@
         <v>55183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6241,13 @@
         <v>242050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -6250,13 +6256,13 @@
         <v>239005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6265,13 +6271,13 @@
         <v>481055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6333,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6339,13 +6345,13 @@
         <v>39201</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6354,13 +6360,13 @@
         <v>82198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -6369,13 +6375,13 @@
         <v>121399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6396,13 @@
         <v>617357</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -6405,13 +6411,13 @@
         <v>609096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -6420,13 +6426,13 @@
         <v>1226453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6488,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6500,13 @@
         <v>32367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6509,13 +6515,13 @@
         <v>56751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -6524,13 +6530,13 @@
         <v>89118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6551,13 @@
         <v>746216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -6560,13 +6566,13 @@
         <v>769416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -6575,13 +6581,13 @@
         <v>1515632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6655,13 @@
         <v>181408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>270</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6664,13 +6670,13 @@
         <v>378113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -6679,13 +6685,13 @@
         <v>559521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6706,13 @@
         <v>3212942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6715,13 +6721,13 @@
         <v>3166429</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>6057</v>
@@ -6730,13 +6736,13 @@
         <v>6379371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,7 +6798,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6816,7 +6822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727CA88E-874B-4653-9F55-34FBBA87ECEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E442E9-826A-48BE-BEFB-9C15C5D2F6D4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +6946,13 @@
         <v>5425</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -6955,13 +6961,13 @@
         <v>8129</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -6970,13 +6976,13 @@
         <v>13554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6997,13 @@
         <v>254873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>521</v>
@@ -7006,13 +7012,13 @@
         <v>263274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
@@ -7021,13 +7027,13 @@
         <v>518146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7101,13 @@
         <v>37435</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -7110,13 +7116,13 @@
         <v>60729</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -7125,13 +7131,13 @@
         <v>98164</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7152,13 @@
         <v>481862</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
@@ -7161,13 +7167,13 @@
         <v>493117</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -7176,13 +7182,13 @@
         <v>974980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7256,13 @@
         <v>18354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>497</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -7265,13 +7271,13 @@
         <v>24376</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -7280,13 +7286,13 @@
         <v>42729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>503</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,7 +7307,7 @@
         <v>303886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>505</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>506</v>
@@ -7331,13 +7337,13 @@
         <v>652178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>511</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,10 +7414,10 @@
         <v>513</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -7420,13 +7426,13 @@
         <v>46596</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -7435,13 +7441,13 @@
         <v>65737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7462,13 @@
         <v>301812</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -7474,10 +7480,10 @@
         <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
@@ -7486,13 +7492,13 @@
         <v>683773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7566,13 @@
         <v>6155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -7575,13 +7581,13 @@
         <v>20576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7590,13 +7596,13 @@
         <v>26731</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7617,13 @@
         <v>190593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
@@ -7626,13 +7632,13 @@
         <v>210654</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>713</v>
@@ -7641,13 +7647,13 @@
         <v>401246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7715,13 +7721,13 @@
         <v>14927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -7730,13 +7736,13 @@
         <v>19632</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -7745,13 +7751,13 @@
         <v>34559</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7772,13 @@
         <v>262296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>553</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
@@ -7796,7 +7802,7 @@
         <v>518286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>557</v>
@@ -7858,7 +7864,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7873,10 +7879,10 @@
         <v>559</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>170</v>
+        <v>560</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
@@ -7885,13 +7891,13 @@
         <v>94263</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>563</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
@@ -7900,13 +7906,13 @@
         <v>145612</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7927,13 @@
         <v>576405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>568</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>569</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
@@ -7936,13 +7942,13 @@
         <v>709940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>570</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="M23" s="7">
         <v>1379</v>
@@ -7951,13 +7957,13 @@
         <v>1286345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8019,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,13 +8031,13 @@
         <v>46555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
@@ -8040,13 +8046,13 @@
         <v>135795</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
@@ -8055,13 +8061,13 @@
         <v>182349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8082,13 @@
         <v>812873</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>481</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>882</v>
@@ -8091,13 +8097,13 @@
         <v>732639</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M26" s="7">
         <v>1591</v>
@@ -8106,13 +8112,13 @@
         <v>1545513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8186,13 @@
         <v>199340</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H28" s="7">
         <v>606</v>
@@ -8195,13 +8201,13 @@
         <v>410097</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>585</v>
+        <v>251</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>587</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>822</v>
@@ -8210,13 +8216,13 @@
         <v>609436</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8237,13 @@
         <v>3184602</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>4754</v>
@@ -8246,13 +8252,13 @@
         <v>3395864</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>258</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>7912</v>
@@ -8261,13 +8267,13 @@
         <v>6580466</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,7 +8329,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90972FE-86BA-4F6F-BC65-310B14B30D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{260CD1F2-51BD-435D-B97A-81E49995442D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BD5308E0-E905-431F-82F1-607EF3893FBE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CC1F297-C730-4EB0-A8B9-74DC30E4A58D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="610">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>7,83%</t>
@@ -680,58 +731,58 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -1214,9 +1265,6 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
     <t>4,0%</t>
   </si>
   <si>
@@ -1238,9 +1286,6 @@
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
     <t>91,37%</t>
   </si>
   <si>
@@ -1430,220 +1475,202 @@
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>6,25%</t>
@@ -1652,190 +1679,196 @@
     <t>4,72%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>91,83%</t>
+    <t>91,85%</t>
   </si>
   <si>
     <t>95,28%</t>
   </si>
   <si>
-    <t>8,14%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC27BC-687D-430B-B4F8-519349BB37BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01705C2-CAED-4292-B595-3654EA39D7EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3623,7 +3656,7 @@
         <v>277</v>
       </c>
       <c r="I28" s="7">
-        <v>286810</v>
+        <v>286809</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>161</v>
@@ -3659,7 +3692,7 @@
         <v>3046</v>
       </c>
       <c r="D29" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>167</v>
@@ -3689,7 +3722,7 @@
         <v>6066</v>
       </c>
       <c r="N29" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>173</v>
@@ -3710,7 +3743,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3725,7 +3758,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3740,7 +3773,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F650259-EB6F-4AA7-9F83-1788AB6915E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C506D9D-35D5-4D9B-AF55-317C2F1FDC89}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3896,43 +3929,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26437</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="I4" s="7">
+        <v>56526</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="N4" s="7">
+        <v>82963</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,43 +3980,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="D5" s="7">
+        <v>268301</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="I5" s="7">
+        <v>230719</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>460</v>
+      </c>
+      <c r="N5" s="7">
+        <v>499020</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,43 +4031,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4090,13 @@
         <v>39572</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>71</v>
@@ -4054,13 +4105,13 @@
         <v>77222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -4069,13 +4120,13 @@
         <v>116793</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4141,13 @@
         <v>465955</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>408</v>
@@ -4105,13 +4156,13 @@
         <v>445488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>847</v>
@@ -4120,10 +4171,10 @@
         <v>911444</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>171</v>
@@ -4194,13 +4245,13 @@
         <v>17727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4209,13 +4260,13 @@
         <v>37911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4224,13 +4275,13 @@
         <v>55638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4296,13 @@
         <v>306319</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>282</v>
@@ -4260,13 +4311,13 @@
         <v>303109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>584</v>
@@ -4275,13 +4326,13 @@
         <v>609428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,49 +4394,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>49766</v>
+        <v>23329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>136853</v>
+        <v>80328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>186619</v>
+        <v>103656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,49 +4445,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>578</v>
+        <v>322</v>
       </c>
       <c r="D14" s="7">
-        <v>618954</v>
+        <v>350653</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>497</v>
+        <v>293</v>
       </c>
       <c r="I14" s="7">
-        <v>539343</v>
+        <v>308623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>1075</v>
+        <v>615</v>
       </c>
       <c r="N14" s="7">
-        <v>1158297</v>
+        <v>659277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,10 +4496,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4460,10 +4511,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4475,10 +4526,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4504,13 +4555,13 @@
         <v>9241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4519,13 +4570,13 @@
         <v>37690</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -4534,13 +4585,13 @@
         <v>46931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4606,13 @@
         <v>203377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>176</v>
@@ -4570,13 +4621,13 @@
         <v>181901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -4585,13 +4636,13 @@
         <v>385278</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4710,13 @@
         <v>19514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4674,13 +4725,13 @@
         <v>29579</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4689,13 +4740,13 @@
         <v>49093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4761,13 @@
         <v>253413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4725,10 +4776,10 @@
         <v>250452</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>137</v>
@@ -4740,13 +4791,13 @@
         <v>503865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,10 +4868,10 @@
         <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4829,13 +4880,13 @@
         <v>52013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>73</v>
@@ -4844,13 +4895,13 @@
         <v>79921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,10 +4919,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>588</v>
@@ -4880,13 +4931,13 @@
         <v>640895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>1180</v>
@@ -4895,13 +4946,13 @@
         <v>1275775</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5020,13 @@
         <v>66859</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>114</v>
@@ -4984,13 +5035,13 @@
         <v>124942</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>171</v>
@@ -4999,13 +5050,13 @@
         <v>191801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5071,13 @@
         <v>711302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>643</v>
@@ -5035,13 +5086,13 @@
         <v>698911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>1302</v>
@@ -5050,13 +5101,13 @@
         <v>1410213</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5175,13 @@
         <v>230586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>462</v>
@@ -5139,13 +5190,13 @@
         <v>496210</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>671</v>
@@ -5154,13 +5205,13 @@
         <v>726796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5226,13 @@
         <v>3194202</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>2834</v>
@@ -5190,13 +5241,13 @@
         <v>3060099</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>5832</v>
@@ -5205,13 +5256,13 @@
         <v>6254301</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A9D9A4-487F-45F7-9E64-4DF3912AFD8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169F6F7B-16A0-43CE-B938-6A527277A82F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5466,13 @@
         <v>27399</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -5430,13 +5481,13 @@
         <v>56515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>78</v>
@@ -5445,13 +5496,13 @@
         <v>83915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5517,13 @@
         <v>266362</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>224</v>
@@ -5481,13 +5532,13 @@
         <v>232188</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>465</v>
@@ -5496,13 +5547,13 @@
         <v>498549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5621,13 @@
         <v>13486</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -5585,13 +5636,13 @@
         <v>42155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5600,13 +5651,13 @@
         <v>55641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5672,13 @@
         <v>489089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>446</v>
@@ -5636,13 +5687,13 @@
         <v>480929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>908</v>
@@ -5651,13 +5702,13 @@
         <v>970018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5776,13 @@
         <v>6715</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5740,13 +5791,13 @@
         <v>16514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5755,13 +5806,13 @@
         <v>23229</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5827,13 @@
         <v>311850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -5791,13 +5842,13 @@
         <v>319795</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>645</v>
@@ -5806,13 +5857,13 @@
         <v>631645</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5931,13 @@
         <v>32335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -5895,13 +5946,13 @@
         <v>72339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -5910,13 +5961,13 @@
         <v>104674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,10 +5982,10 @@
         <v>337629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>168</v>
@@ -5946,13 +5997,13 @@
         <v>314944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -5961,13 +6012,13 @@
         <v>652573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,10 +6086,10 @@
         <v>8832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>127</v>
@@ -6050,13 +6101,13 @@
         <v>17531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -6065,13 +6116,13 @@
         <v>26363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6137,13 @@
         <v>202389</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>206</v>
@@ -6101,13 +6152,13 @@
         <v>201056</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>409</v>
@@ -6116,13 +6167,13 @@
         <v>403445</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6241,13 @@
         <v>21073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6205,13 +6256,13 @@
         <v>34110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -6220,13 +6271,13 @@
         <v>55183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,10 +6292,10 @@
         <v>242050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>132</v>
@@ -6256,13 +6307,13 @@
         <v>239005</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>471</v>
@@ -6271,13 +6322,13 @@
         <v>481055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6396,13 @@
         <v>39201</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -6360,13 +6411,13 @@
         <v>82198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -6375,13 +6426,13 @@
         <v>121399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6447,13 @@
         <v>617357</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -6411,13 +6462,13 @@
         <v>609096</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -6426,13 +6477,13 @@
         <v>1226453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6551,13 @@
         <v>32367</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6518,10 +6569,10 @@
         <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -6530,13 +6581,13 @@
         <v>89118</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6602,13 @@
         <v>746216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>707</v>
@@ -6569,10 +6620,10 @@
         <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>1424</v>
@@ -6581,13 +6632,13 @@
         <v>1515632</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6706,13 @@
         <v>181408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>339</v>
@@ -6670,13 +6721,13 @@
         <v>378113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>512</v>
@@ -6685,13 +6736,13 @@
         <v>559521</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6757,13 @@
         <v>3212942</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>2999</v>
@@ -6721,13 +6772,13 @@
         <v>3166429</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>6057</v>
@@ -6736,13 +6787,13 @@
         <v>6379371</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E442E9-826A-48BE-BEFB-9C15C5D2F6D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E37BBB-CB59-477A-836A-FBFE91A3D867}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6943,46 +6994,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>5425</v>
+        <v>6276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>8129</v>
+        <v>8638</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>13554</v>
+        <v>14914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,46 +7045,46 @@
         <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>254873</v>
+        <v>305167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>521</v>
       </c>
       <c r="I5" s="7">
-        <v>263274</v>
+        <v>280997</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>846</v>
       </c>
       <c r="N5" s="7">
-        <v>518146</v>
+        <v>586163</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,7 +7096,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7060,7 +7111,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7075,7 +7126,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7098,46 +7149,46 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>37435</v>
+        <v>35776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
       </c>
       <c r="I7" s="7">
-        <v>60729</v>
+        <v>55632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>98164</v>
+        <v>91408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>486</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,46 +7200,46 @@
         <v>350</v>
       </c>
       <c r="D8" s="7">
-        <v>481862</v>
+        <v>482614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>635</v>
       </c>
       <c r="I8" s="7">
-        <v>493117</v>
+        <v>458690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
       </c>
       <c r="N8" s="7">
-        <v>974980</v>
+        <v>941304</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,7 +7251,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7215,7 +7266,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553846</v>
+        <v>514322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7230,7 +7281,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1073144</v>
+        <v>1032712</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7253,46 +7304,46 @@
         <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>18354</v>
+        <v>17671</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>24376</v>
+        <v>22609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>42729</v>
+        <v>40280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,46 +7355,46 @@
         <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>303886</v>
+        <v>298379</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
       </c>
       <c r="I11" s="7">
-        <v>348291</v>
+        <v>325959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>830</v>
       </c>
       <c r="N11" s="7">
-        <v>652178</v>
+        <v>624338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>511</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,7 +7406,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7370,7 +7421,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372667</v>
+        <v>348568</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7385,7 +7436,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694907</v>
+        <v>664618</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7408,46 +7459,46 @@
         <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>19141</v>
+        <v>18463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>46596</v>
+        <v>42934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
       </c>
       <c r="N13" s="7">
-        <v>65737</v>
+        <v>61396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,46 +7510,46 @@
         <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>301812</v>
+        <v>292887</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
       </c>
       <c r="I14" s="7">
-        <v>381960</v>
+        <v>432784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>802</v>
       </c>
       <c r="N14" s="7">
-        <v>683773</v>
+        <v>725672</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +7561,7 @@
         <v>290</v>
       </c>
       <c r="D15" s="7">
-        <v>320953</v>
+        <v>311350</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7525,7 +7576,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7540,7 +7591,7 @@
         <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>749510</v>
+        <v>787068</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7563,46 +7614,46 @@
         <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>6155</v>
+        <v>5528</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>20576</v>
+        <v>18641</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>26731</v>
+        <v>24169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,46 +7665,46 @@
         <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>190593</v>
+        <v>173214</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>444</v>
       </c>
       <c r="I17" s="7">
-        <v>210654</v>
+        <v>189392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>713</v>
       </c>
       <c r="N17" s="7">
-        <v>401246</v>
+        <v>362606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7716,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7680,7 +7731,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231230</v>
+        <v>208033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7695,7 +7746,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427977</v>
+        <v>386775</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7718,46 +7769,46 @@
         <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>14927</v>
+        <v>14227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>18</v>
+        <v>556</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>19632</v>
+        <v>18305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>34559</v>
+        <v>32532</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>535</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,46 +7820,46 @@
         <v>347</v>
       </c>
       <c r="D20" s="7">
-        <v>262296</v>
+        <v>255409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>29</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>419</v>
       </c>
       <c r="I20" s="7">
-        <v>255990</v>
+        <v>238751</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>555</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>766</v>
       </c>
       <c r="N20" s="7">
-        <v>518286</v>
+        <v>494160</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7871,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7835,7 +7886,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7850,7 +7901,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7873,46 +7924,46 @@
         <v>47</v>
       </c>
       <c r="D22" s="7">
-        <v>51349</v>
+        <v>50151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>133</v>
       </c>
       <c r="I22" s="7">
-        <v>94263</v>
+        <v>86078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>571</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>180</v>
       </c>
       <c r="N22" s="7">
-        <v>145612</v>
+        <v>136229</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>564</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>566</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,46 +7975,46 @@
         <v>552</v>
       </c>
       <c r="D23" s="7">
-        <v>576405</v>
+        <v>574128</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H23" s="7">
         <v>827</v>
       </c>
       <c r="I23" s="7">
-        <v>709940</v>
+        <v>763187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>578</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="M23" s="7">
         <v>1379</v>
       </c>
       <c r="N23" s="7">
-        <v>1286345</v>
+        <v>1337315</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>572</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>573</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,7 +8026,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7990,7 +8041,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8005,7 +8056,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8028,46 +8079,46 @@
         <v>53</v>
       </c>
       <c r="D25" s="7">
-        <v>46555</v>
+        <v>39744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>582</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="H25" s="7">
         <v>180</v>
       </c>
       <c r="I25" s="7">
-        <v>135795</v>
+        <v>112318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>578</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>233</v>
       </c>
       <c r="N25" s="7">
-        <v>182349</v>
+        <v>152062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,46 +8130,46 @@
         <v>709</v>
       </c>
       <c r="D26" s="7">
-        <v>812873</v>
+        <v>888976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>588</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>882</v>
       </c>
       <c r="I26" s="7">
-        <v>732639</v>
+        <v>605413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>586</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>1591</v>
       </c>
       <c r="N26" s="7">
-        <v>1545513</v>
+        <v>1494390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>587</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,7 +8181,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8145,7 +8196,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8160,7 +8211,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8183,46 +8234,46 @@
         <v>216</v>
       </c>
       <c r="D28" s="7">
-        <v>199340</v>
+        <v>187834</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>371</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="H28" s="7">
         <v>606</v>
       </c>
       <c r="I28" s="7">
-        <v>410097</v>
+        <v>365157</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>251</v>
+        <v>596</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>452</v>
+        <v>598</v>
       </c>
       <c r="M28" s="7">
         <v>822</v>
       </c>
       <c r="N28" s="7">
-        <v>609436</v>
+        <v>552991</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>599</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,46 +8285,46 @@
         <v>3158</v>
       </c>
       <c r="D29" s="7">
-        <v>3184602</v>
+        <v>3270777</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>4754</v>
       </c>
       <c r="I29" s="7">
-        <v>3395864</v>
+        <v>3295170</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>258</v>
+        <v>604</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>605</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="M29" s="7">
         <v>7912</v>
       </c>
       <c r="N29" s="7">
-        <v>6580466</v>
+        <v>6565947</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>156</v>
+        <v>607</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,7 +8336,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383942</v>
+        <v>3458611</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8300,7 +8351,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3805961</v>
+        <v>3660327</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8315,7 +8366,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7189902</v>
+        <v>7118938</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
